--- a/ImageTools/Michael_Food_Database.xlsx
+++ b/ImageTools/Michael_Food_Database.xlsx
@@ -14,10 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>Vegetables</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Meat</t>
   </si>
@@ -25,10 +22,16 @@
     <t>Bread</t>
   </si>
   <si>
-    <t>Fruit</t>
-  </si>
-  <si>
-    <t>Test with 4 classes</t>
+    <t>Milk</t>
+  </si>
+  <si>
+    <t>Egg</t>
+  </si>
+  <si>
+    <t>Cheese</t>
+  </si>
+  <si>
+    <t>Test with 5 classes</t>
   </si>
 </sst>
 </file>
@@ -377,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -388,27 +391,32 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
